--- a/medicine/Enfance/Olivier_Charpentier/Olivier_Charpentier.xlsx
+++ b/medicine/Enfance/Olivier_Charpentier/Olivier_Charpentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Charpentier, né en 1967 à Paris, est un peintre et illustrateur français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Charpentier est diplômé de l'École nationale supérieure des arts décoratifs de Paris[1]. Il expose dans des galeries et travaille pour la presse et l'édition jeunesse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Charpentier est diplômé de l'École nationale supérieure des arts décoratifs de Paris. Il expose dans des galeries et travaille pour la presse et l'édition jeunesse.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Isaac de Benserade, Le Ballet royal de la Nuit, dessins d'Olivier Charpentier, introduction de Clotilde Thouret, textes de Sébastien Daucé, Francesca Lattuada et Olivier Charpentier, Paris, Prodromus, 2017
 Campagne première, peintures, sculptures &amp; textes d'Olivier Charpentier, postface de Jean-Pierre Ferrini, Paris, Prodromus, 2016
 Et moi aussi je mourrai, peintures &amp; monotypes d'Olivier Charpentier, textes de François de Saint-Cheron et Didier Goldschmidt, Paris, Prodromus, 2015
-Hokusaï et le cadeau de la mer[2], texte de Beatrice Alemagna ; illustrations d'Olivier Charpentier, Réunion des musées nationaux - Grand Palais, 2014
+Hokusaï et le cadeau de la mer, texte de Beatrice Alemagna ; illustrations d'Olivier Charpentier, Réunion des musées nationaux - Grand Palais, 2014
 Le Grain de maïs, conte ivoirien adapté par Manfeï Obin, Paris, Seuil jeunesse, 2012
 La Nuit, Paris, Seuil jeunesse, Clac book, 2011
 L'Odyssée d'Omer, texte de Frédéric Kessler, Paris, Autrement, 2009
